--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/画面遷移図.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/画面遷移図.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36111AF-DCB4-4CE0-BEC1-3B58A32D4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE66EF7-6B0B-4435-BE1F-C7E8D7342AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="166" r:id="rId1"/>
-    <sheet name="メイン画面" sheetId="167" r:id="rId2"/>
+    <sheet name="メイン画面(HOME）" sheetId="167" r:id="rId2"/>
     <sheet name="確認" sheetId="176" r:id="rId3"/>
     <sheet name="メモ" sheetId="168" r:id="rId4"/>
     <sheet name="タスク" sheetId="169" r:id="rId5"/>
@@ -29,12 +29,25 @@
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -489,6 +502,17 @@
     <t>やはた</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>作業用ホームページ</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD  hh:mm</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -579,13 +603,31 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -734,7 +776,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -837,6 +879,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,12 +913,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,20 +960,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,18 +978,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6419,8 +6583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1409700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1453243"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -6587,8 +6751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1828800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1883229"/>
+          <a:ext cx="1941739" cy="277585"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -6755,8 +6919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2219325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2284639"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -6923,8 +7087,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2600325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2681968"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -7091,8 +7255,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2971800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="3064329"/>
+          <a:ext cx="1941739" cy="272142"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -7259,8 +7423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="3362325"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="3465739"/>
+          <a:ext cx="1941739" cy="789215"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -8265,8 +8429,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1409700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1453243"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -8633,8 +8797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1828800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1883229"/>
+          <a:ext cx="1941739" cy="277585"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -8801,8 +8965,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2219325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2284639"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -8969,8 +9133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2600325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2681968"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -9137,8 +9301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2971800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="3064329"/>
+          <a:ext cx="1941739" cy="272142"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -9305,8 +9469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="3362325"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="3465739"/>
+          <a:ext cx="1941739" cy="789215"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -9720,8 +9884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1409700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1453243"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -10088,8 +10252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="1828800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="1883229"/>
+          <a:ext cx="1941739" cy="277585"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -10256,8 +10420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2219325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2284639"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -10424,8 +10588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2600325"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="2681968"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -10592,8 +10756,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="2971800"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="3064329"/>
+          <a:ext cx="1941739" cy="272142"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -10760,8 +10924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="3362325"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="3465739"/>
+          <a:ext cx="1941739" cy="789215"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -12392,8 +12556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="8610600"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="8882743"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -12760,8 +12924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="9029700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="9312729"/>
+          <a:ext cx="1941739" cy="277585"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -12928,8 +13092,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="9420225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="9714139"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -13096,8 +13260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="9801225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="10111468"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -13264,8 +13428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="10172700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="10493829"/>
+          <a:ext cx="1941739" cy="272142"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -13432,8 +13596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="10563225"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="10895239"/>
+          <a:ext cx="1941739" cy="789215"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -14782,8 +14946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="15468600"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="15958457"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -15150,8 +15314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="15887700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="16388443"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -15318,8 +15482,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="16278225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="16789854"/>
+          <a:ext cx="1941739" cy="277585"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -15486,8 +15650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="16659225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="17187182"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -15654,8 +15818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="17030700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="17569543"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -15822,8 +15986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="17421225"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="17970954"/>
+          <a:ext cx="1941739" cy="789214"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -17303,8 +17467,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="22326600"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="23034171"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -17671,8 +17835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="22745700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="23464157"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -17839,8 +18003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="23136225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="23865568"/>
+          <a:ext cx="1941739" cy="277586"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -18007,8 +18171,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="23517225"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="24262896"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -18175,8 +18339,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="23888700"/>
-          <a:ext cx="1952625" cy="266700"/>
+          <a:off x="8911318" y="24645257"/>
+          <a:ext cx="1941739" cy="272143"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="266700"/>
         </a:xfrm>
@@ -18343,8 +18507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8982075" y="24279225"/>
-          <a:ext cx="1952625" cy="762000"/>
+          <a:off x="8911318" y="25046668"/>
+          <a:ext cx="1941739" cy="789214"/>
           <a:chOff x="8982075" y="1409700"/>
           <a:chExt cx="1952625" cy="762000"/>
         </a:xfrm>
@@ -25271,8 +25435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R26:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -25305,52 +25469,52 @@
       <c r="R1" s="49"/>
       <c r="S1" s="49"/>
       <c r="T1" s="49"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="43" t="s">
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="44" t="s">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="43" t="s">
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
       <c r="A2" s="48"/>
@@ -25375,48 +25539,48 @@
       <c r="R2" s="49"/>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="43" t="s">
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="43" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1">
       <c r="C6" s="2"/>
@@ -25532,11 +25696,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -25545,6 +25704,11 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -25559,34 +25723,34 @@
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="18"/>
@@ -25731,28 +25895,28 @@
       <c r="J24" s="22"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="18"/>
@@ -25911,33 +26075,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02D7AE8-6C74-4200-B6ED-C89C0CB03341}">
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="18"/>
@@ -26101,28 +26267,28 @@
       <c r="J27" s="22"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="18"/>
@@ -26300,83 +26466,906 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA2B882-51F7-4844-BF0A-BF4382C23496}">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:16">
+      <c r="B2" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="87"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="93"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="94"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="95"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="96"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="80"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="113"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="80"/>
+      <c r="C6" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="87"/>
+      <c r="I6" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="119"/>
+      <c r="P6" s="120"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="82"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="115"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="80"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="80"/>
+      <c r="C9" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="81"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="81"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="81"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="81"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="81"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="81"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="81"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="81"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="80"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="81"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="80"/>
+      <c r="C18" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="81"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="81"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="81"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="81"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="81"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="81"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="81"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="81"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="80"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="81"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="80"/>
+      <c r="C27" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="81"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="81"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="81"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="81"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="81"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="81"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="81"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="80"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="81"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="80"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="81"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="80"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="81"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="80"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="84"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="79"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="80"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="103"/>
+      <c r="P39" s="104"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:P4"/>
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993B32EA-A9B2-468E-BB4A-21B2C68ED5C7}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:5">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="46"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="46"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC5767C-0D23-4733-B0D7-9794B1C2A7AC}">
+  <dimension ref="B2:P40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="18"/>
-      <c r="P3" s="19"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="18"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="20"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="18"/>
@@ -26385,243 +27374,419 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="18"/>
-      <c r="C9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="N9" s="18"/>
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="N10" s="18"/>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="N11" s="18"/>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
       <c r="N12" s="18"/>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
       <c r="N13" s="18"/>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
       <c r="N14" s="18"/>
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="L15" s="19"/>
       <c r="N15" s="18"/>
       <c r="P15" s="19"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="C16" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
       <c r="N16" s="18"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="18"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="N17" s="18"/>
       <c r="P17" s="19"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="18"/>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
+      <c r="C18" s="24" t="s">
+        <v>15</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="N18" s="18"/>
       <c r="P18" s="19"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="N19" s="18"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="N20" s="18"/>
       <c r="P20" s="19"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="N21" s="18"/>
       <c r="P21" s="19"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="N22" s="18"/>
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
       <c r="N23" s="18"/>
       <c r="P23" s="19"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="L24" s="19"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
       <c r="N24" s="18"/>
       <c r="P24" s="19"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="18"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="N25" s="18"/>
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="18"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
       <c r="N26" s="18"/>
       <c r="P26" s="19"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="18"/>
-      <c r="C27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="N27" s="18"/>
       <c r="P27" s="19"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="L28" s="19"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
       <c r="N28" s="18"/>
       <c r="P28" s="19"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="L29" s="19"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
       <c r="N29" s="18"/>
       <c r="P29" s="19"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="L30" s="19"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
       <c r="N30" s="18"/>
       <c r="P30" s="19"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="L31" s="19"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
       <c r="N31" s="18"/>
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="L32" s="19"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
       <c r="N32" s="18"/>
       <c r="P32" s="19"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
       <c r="N33" s="18"/>
       <c r="P33" s="19"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="18"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
       <c r="N34" s="18"/>
       <c r="P34" s="19"/>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="18"/>
+      <c r="C35" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
       <c r="N35" s="18"/>
       <c r="P35" s="19"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="18"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
       <c r="N36" s="18"/>
       <c r="P36" s="19"/>
     </row>
@@ -26650,7 +27815,11 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="18"/>
-      <c r="P39" s="19"/>
+      <c r="N39" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="107"/>
+      <c r="P39" s="108"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="20"/>
@@ -26665,17 +27834,24 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="N6:P7"/>
+  <mergeCells count="12">
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="B2:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C16:L17"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="C35:L35"/>
     <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26683,175 +27859,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993B32EA-A9B2-468E-BB4A-21B2C68ED5C7}">
-  <dimension ref="B2:E11"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386B2A5F-9BB0-4893-9B2F-E55EA9D32144}">
+  <dimension ref="B2:P162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="55"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="55"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="53"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="18"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC5767C-0D23-4733-B0D7-9794B1C2A7AC}">
-  <dimension ref="B2:P40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
+      <c r="B2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="18"/>
-      <c r="P3" s="19"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="18"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="20"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="18"/>
@@ -26905,48 +28023,48 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="18"/>
-      <c r="C12" s="60" t="s">
-        <v>14</v>
+      <c r="C12" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
       <c r="N12" s="18"/>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="18"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
       <c r="N13" s="18"/>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="18"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
       <c r="N14" s="18"/>
       <c r="P14" s="19"/>
     </row>
@@ -26957,41 +28075,39 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="18"/>
-      <c r="C16" s="60" t="s">
-        <v>14</v>
+      <c r="C16" s="65" t="s">
+        <v>18</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
       <c r="N16" s="18"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="18"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="N17" s="18"/>
       <c r="P17" s="19"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="18"/>
-      <c r="C18" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -27006,31 +28122,35 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="18"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="C19" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
       <c r="N19" s="18"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="18"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="C20" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
       <c r="N20" s="18"/>
       <c r="P20" s="19"/>
     </row>
@@ -27201,78 +28321,48 @@
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="18"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="C32" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
       <c r="N32" s="18"/>
       <c r="P32" s="19"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="18"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
       <c r="N33" s="18"/>
       <c r="P33" s="19"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="18"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
       <c r="N34" s="18"/>
       <c r="P34" s="19"/>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="18"/>
-      <c r="C35" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
       <c r="N35" s="18"/>
       <c r="P35" s="19"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="18"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
       <c r="N36" s="18"/>
       <c r="P36" s="19"/>
     </row>
@@ -27301,7 +28391,11 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="18"/>
-      <c r="P39" s="19"/>
+      <c r="N39" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="107"/>
+      <c r="P39" s="108"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="20"/>
@@ -27316,22 +28410,1709 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="110"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="18"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="18"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="18"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="18"/>
+      <c r="C48" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33"/>
+      <c r="N48" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="56"/>
+      <c r="P48" s="57"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="20"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="60"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="18"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="N51" s="18"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="18"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="N52" s="18"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="18"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="N53" s="18"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="B54" s="18"/>
+      <c r="C54" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="N54" s="18"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="18"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="N55" s="18"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="B56" s="18"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="N56" s="18"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="B58" s="18"/>
+      <c r="C58" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="N58" s="18"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="18"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="N59" s="18"/>
+      <c r="P59" s="19"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="B60" s="18"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
+      <c r="N60" s="18"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61" s="18"/>
+      <c r="C61" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="72"/>
+      <c r="N61" s="18"/>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" spans="2:16">
+      <c r="B62" s="18"/>
+      <c r="C62" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="72"/>
+      <c r="N62" s="18"/>
+      <c r="P62" s="19"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="B63" s="18"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
+      <c r="N63" s="18"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="B64" s="18"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
+      <c r="N64" s="18"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="B65" s="18"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
+      <c r="N65" s="18"/>
+      <c r="P65" s="19"/>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="B66" s="18"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
+      <c r="N66" s="18"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="B67" s="18"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
+      <c r="N67" s="18"/>
+      <c r="P67" s="19"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="B68" s="18"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
+      <c r="N68" s="18"/>
+      <c r="P68" s="19"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="18"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
+      <c r="N69" s="18"/>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="18"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
+      <c r="N70" s="18"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="18"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
+      <c r="N71" s="18"/>
+      <c r="P71" s="19"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" s="18"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
+      <c r="N72" s="18"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="B73" s="18"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
+      <c r="N73" s="18"/>
+      <c r="P73" s="19"/>
+    </row>
+    <row r="74" spans="2:16">
+      <c r="B74" s="18"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
+      <c r="N74" s="18"/>
+      <c r="P74" s="19"/>
+    </row>
+    <row r="75" spans="2:16">
+      <c r="B75" s="18"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="N75" s="18"/>
+      <c r="P75" s="19"/>
+    </row>
+    <row r="76" spans="2:16">
+      <c r="B76" s="18"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
+      <c r="N76" s="18"/>
+      <c r="P76" s="19"/>
+    </row>
+    <row r="77" spans="2:16">
+      <c r="B77" s="18"/>
+      <c r="C77" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="69"/>
+      <c r="N77" s="18"/>
+      <c r="P77" s="19"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="18"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="N78" s="18"/>
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79" spans="2:16">
+      <c r="B79" s="18"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" spans="2:16">
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="17"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="18"/>
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="17"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="18"/>
+      <c r="P85" s="19"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="18"/>
+      <c r="P86" s="19"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="18"/>
+      <c r="P87" s="19"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="18"/>
+      <c r="C88" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="57"/>
+      <c r="E88" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="57"/>
+      <c r="G88" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="57"/>
+      <c r="I88" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="57"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="33"/>
+      <c r="N88" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O88" s="56"/>
+      <c r="P88" s="57"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="20"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="60"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="P90" s="19"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="18"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="N91" s="18"/>
+      <c r="P91" s="19"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="18"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="N92" s="18"/>
+      <c r="P92" s="19"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="18"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="N93" s="18"/>
+      <c r="P93" s="19"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="18"/>
+      <c r="C94" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="N94" s="18"/>
+      <c r="P94" s="19"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="18"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="N95" s="18"/>
+      <c r="P95" s="19"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="18"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
+      <c r="N96" s="18"/>
+      <c r="P96" s="19"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="P97" s="19"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="18"/>
+      <c r="C98" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="N98" s="18"/>
+      <c r="P98" s="19"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="18"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="N99" s="18"/>
+      <c r="P99" s="19"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="18"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="26"/>
+      <c r="N100" s="18"/>
+      <c r="P100" s="19"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="18"/>
+      <c r="C101" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="72"/>
+      <c r="N101" s="18"/>
+      <c r="P101" s="19"/>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="18"/>
+      <c r="C102" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="72"/>
+      <c r="N102" s="18"/>
+      <c r="P102" s="19"/>
+    </row>
+    <row r="103" spans="2:16">
+      <c r="B103" s="18"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
+      <c r="N103" s="18"/>
+      <c r="P103" s="19"/>
+    </row>
+    <row r="104" spans="2:16">
+      <c r="B104" s="18"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="29"/>
+      <c r="N104" s="18"/>
+      <c r="P104" s="19"/>
+    </row>
+    <row r="105" spans="2:16">
+      <c r="B105" s="18"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="29"/>
+      <c r="N105" s="18"/>
+      <c r="P105" s="19"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="18"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="29"/>
+      <c r="N106" s="18"/>
+      <c r="P106" s="19"/>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="18"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="29"/>
+      <c r="N107" s="18"/>
+      <c r="P107" s="19"/>
+    </row>
+    <row r="108" spans="2:16">
+      <c r="B108" s="18"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="29"/>
+      <c r="N108" s="18"/>
+      <c r="P108" s="19"/>
+    </row>
+    <row r="109" spans="2:16">
+      <c r="B109" s="18"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
+      <c r="N109" s="18"/>
+      <c r="P109" s="19"/>
+    </row>
+    <row r="110" spans="2:16">
+      <c r="B110" s="18"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="29"/>
+      <c r="N110" s="18"/>
+      <c r="P110" s="19"/>
+    </row>
+    <row r="111" spans="2:16">
+      <c r="B111" s="18"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="29"/>
+      <c r="N111" s="18"/>
+      <c r="P111" s="19"/>
+    </row>
+    <row r="112" spans="2:16">
+      <c r="B112" s="18"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="29"/>
+      <c r="N112" s="18"/>
+      <c r="P112" s="19"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="18"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="29"/>
+      <c r="N113" s="18"/>
+      <c r="P113" s="19"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="18"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="29"/>
+      <c r="N114" s="18"/>
+      <c r="P114" s="19"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="B115" s="18"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="29"/>
+      <c r="N115" s="18"/>
+      <c r="P115" s="19"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="18"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="29"/>
+      <c r="N116" s="18"/>
+      <c r="P116" s="19"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="18"/>
+      <c r="C117" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
+      <c r="L117" s="69"/>
+      <c r="N117" s="18"/>
+      <c r="P117" s="19"/>
+    </row>
+    <row r="118" spans="2:16">
+      <c r="B118" s="18"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="66"/>
+      <c r="N118" s="18"/>
+      <c r="P118" s="19"/>
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" s="18"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="22"/>
+    </row>
+    <row r="120" spans="2:16">
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="17"/>
+    </row>
+    <row r="121" spans="2:16">
+      <c r="B121" s="18"/>
+      <c r="P121" s="19"/>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="22"/>
+    </row>
+    <row r="124" spans="2:16">
+      <c r="B124" s="15"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="17"/>
+    </row>
+    <row r="125" spans="2:16">
+      <c r="B125" s="18"/>
+      <c r="P125" s="19"/>
+    </row>
+    <row r="126" spans="2:16">
+      <c r="B126" s="18"/>
+      <c r="P126" s="19"/>
+    </row>
+    <row r="127" spans="2:16">
+      <c r="B127" s="18"/>
+      <c r="P127" s="19"/>
+    </row>
+    <row r="128" spans="2:16">
+      <c r="B128" s="18"/>
+      <c r="C128" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="57"/>
+      <c r="E128" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="57"/>
+      <c r="G128" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="57"/>
+      <c r="I128" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" s="57"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="33"/>
+      <c r="N128" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O128" s="56"/>
+      <c r="P128" s="57"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" s="20"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="63"/>
+      <c r="K129" s="34"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="58"/>
+      <c r="O129" s="59"/>
+      <c r="P129" s="60"/>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="B130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="P130" s="19"/>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="B131" s="18"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="N131" s="18"/>
+      <c r="P131" s="19"/>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" s="18"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="N132" s="18"/>
+      <c r="P132" s="19"/>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" s="18"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+      <c r="N133" s="18"/>
+      <c r="P133" s="19"/>
+    </row>
+    <row r="134" spans="2:16">
+      <c r="B134" s="18"/>
+      <c r="C134" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="65"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="65"/>
+      <c r="J134" s="65"/>
+      <c r="K134" s="65"/>
+      <c r="L134" s="65"/>
+      <c r="N134" s="18"/>
+      <c r="P134" s="19"/>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="B135" s="18"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="65"/>
+      <c r="J135" s="65"/>
+      <c r="K135" s="65"/>
+      <c r="L135" s="65"/>
+      <c r="N135" s="18"/>
+      <c r="P135" s="19"/>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="B136" s="18"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
+      <c r="N136" s="18"/>
+      <c r="P136" s="19"/>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="B137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="P137" s="19"/>
+    </row>
+    <row r="138" spans="2:16">
+      <c r="B138" s="18"/>
+      <c r="C138" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
+      <c r="L138" s="65"/>
+      <c r="N138" s="18"/>
+      <c r="P138" s="19"/>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="B139" s="18"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65"/>
+      <c r="N139" s="18"/>
+      <c r="P139" s="19"/>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="B140" s="18"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="26"/>
+      <c r="N140" s="18"/>
+      <c r="P140" s="19"/>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="B141" s="18"/>
+      <c r="C141" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="71"/>
+      <c r="L141" s="72"/>
+      <c r="N141" s="18"/>
+      <c r="P141" s="19"/>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="B142" s="18"/>
+      <c r="C142" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="71"/>
+      <c r="J142" s="71"/>
+      <c r="K142" s="71"/>
+      <c r="L142" s="72"/>
+      <c r="N142" s="18"/>
+      <c r="P142" s="19"/>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="B143" s="18"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="29"/>
+      <c r="N143" s="18"/>
+      <c r="P143" s="19"/>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="B144" s="18"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="29"/>
+      <c r="N144" s="18"/>
+      <c r="P144" s="19"/>
+    </row>
+    <row r="145" spans="2:16">
+      <c r="B145" s="18"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="29"/>
+      <c r="N145" s="18"/>
+      <c r="P145" s="19"/>
+    </row>
+    <row r="146" spans="2:16">
+      <c r="B146" s="18"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="29"/>
+      <c r="N146" s="18"/>
+      <c r="P146" s="19"/>
+    </row>
+    <row r="147" spans="2:16">
+      <c r="B147" s="18"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="29"/>
+      <c r="N147" s="18"/>
+      <c r="P147" s="19"/>
+    </row>
+    <row r="148" spans="2:16">
+      <c r="B148" s="18"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="29"/>
+      <c r="N148" s="18"/>
+      <c r="P148" s="19"/>
+    </row>
+    <row r="149" spans="2:16">
+      <c r="B149" s="18"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="71"/>
+      <c r="K149" s="71"/>
+      <c r="L149" s="29"/>
+      <c r="N149" s="18"/>
+      <c r="P149" s="19"/>
+    </row>
+    <row r="150" spans="2:16">
+      <c r="B150" s="18"/>
+      <c r="C150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="29"/>
+      <c r="N150" s="18"/>
+      <c r="P150" s="19"/>
+    </row>
+    <row r="151" spans="2:16">
+      <c r="B151" s="18"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="71"/>
+      <c r="J151" s="71"/>
+      <c r="K151" s="71"/>
+      <c r="L151" s="29"/>
+      <c r="N151" s="18"/>
+      <c r="P151" s="19"/>
+    </row>
+    <row r="152" spans="2:16">
+      <c r="B152" s="18"/>
+      <c r="C152" s="27"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="29"/>
+      <c r="N152" s="18"/>
+      <c r="P152" s="19"/>
+    </row>
+    <row r="153" spans="2:16">
+      <c r="B153" s="18"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="29"/>
+      <c r="N153" s="18"/>
+      <c r="P153" s="19"/>
+    </row>
+    <row r="154" spans="2:16">
+      <c r="B154" s="18"/>
+      <c r="C154" s="27"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
+      <c r="N154" s="18"/>
+      <c r="P154" s="19"/>
+    </row>
+    <row r="155" spans="2:16">
+      <c r="B155" s="18"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="71"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="71"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="29"/>
+      <c r="N155" s="18"/>
+      <c r="P155" s="19"/>
+    </row>
+    <row r="156" spans="2:16">
+      <c r="B156" s="18"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="29"/>
+      <c r="N156" s="18"/>
+      <c r="P156" s="19"/>
+    </row>
+    <row r="157" spans="2:16">
+      <c r="B157" s="18"/>
+      <c r="C157" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="68"/>
+      <c r="J157" s="68"/>
+      <c r="K157" s="68"/>
+      <c r="L157" s="69"/>
+      <c r="N157" s="18"/>
+      <c r="P157" s="19"/>
+    </row>
+    <row r="158" spans="2:16">
+      <c r="B158" s="18"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="66"/>
+      <c r="J158" s="66"/>
+      <c r="K158" s="66"/>
+      <c r="L158" s="66"/>
+      <c r="N158" s="18"/>
+      <c r="P158" s="19"/>
+    </row>
+    <row r="159" spans="2:16">
+      <c r="B159" s="18"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="22"/>
+    </row>
+    <row r="160" spans="2:16">
+      <c r="B160" s="15"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="17"/>
+    </row>
+    <row r="161" spans="2:16">
+      <c r="B161" s="18"/>
+      <c r="P161" s="19"/>
+    </row>
+    <row r="162" spans="2:16">
+      <c r="B162" s="20"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
+      <c r="M162" s="21"/>
+      <c r="N162" s="21"/>
+      <c r="O162" s="21"/>
+      <c r="P162" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="57">
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="B2:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="F114:J114"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="C157:L157"/>
+    <mergeCell ref="C158:L158"/>
+    <mergeCell ref="D149:K149"/>
+    <mergeCell ref="D151:K151"/>
+    <mergeCell ref="D153:K153"/>
+    <mergeCell ref="D155:K155"/>
+    <mergeCell ref="C142:L142"/>
+    <mergeCell ref="C117:L117"/>
+    <mergeCell ref="C118:L118"/>
+    <mergeCell ref="N128:P129"/>
+    <mergeCell ref="C134:L135"/>
+    <mergeCell ref="C136:L136"/>
+    <mergeCell ref="C138:L139"/>
+    <mergeCell ref="C141:L141"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:F129"/>
+    <mergeCell ref="G128:H129"/>
+    <mergeCell ref="I128:J129"/>
+    <mergeCell ref="N88:P89"/>
+    <mergeCell ref="C94:L95"/>
+    <mergeCell ref="C96:L96"/>
+    <mergeCell ref="C98:L99"/>
+    <mergeCell ref="C101:L101"/>
+    <mergeCell ref="C102:L102"/>
+    <mergeCell ref="C78:L78"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:F89"/>
+    <mergeCell ref="G88:H89"/>
+    <mergeCell ref="I88:J89"/>
+    <mergeCell ref="N48:P49"/>
+    <mergeCell ref="C54:L55"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="C58:L59"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="G48:H49"/>
+    <mergeCell ref="I48:J49"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C16:L17"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C16:L17"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="C35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27339,87 +30120,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386B2A5F-9BB0-4893-9B2F-E55EA9D32144}">
-  <dimension ref="B2:P162"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99BDDE-1E86-434B-8AF5-496D1362A8D4}">
+  <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
+      <c r="B2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="18"/>
-      <c r="P3" s="19"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="18"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="20"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="18"/>
@@ -27443,7 +30254,9 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="18"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -27458,63 +30271,21 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="18"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
       <c r="N11" s="18"/>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="18"/>
-      <c r="C12" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
       <c r="N12" s="18"/>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="18"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
       <c r="N13" s="18"/>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="18"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
       <c r="N14" s="18"/>
       <c r="P14" s="19"/>
     </row>
@@ -27525,284 +30296,135 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="18"/>
-      <c r="C16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
       <c r="N16" s="18"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="18"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
       <c r="N17" s="18"/>
       <c r="P17" s="19"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
       <c r="N18" s="18"/>
       <c r="P18" s="19"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="18"/>
-      <c r="C19" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="68"/>
       <c r="N19" s="18"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="18"/>
-      <c r="C20" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="68"/>
       <c r="N20" s="18"/>
       <c r="P20" s="19"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="18"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
       <c r="N21" s="18"/>
       <c r="P21" s="19"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" ht="18.75">
       <c r="B22" s="18"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
       <c r="N22" s="18"/>
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="18"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
       <c r="N23" s="18"/>
       <c r="P23" s="19"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="18"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
       <c r="N24" s="18"/>
       <c r="P24" s="19"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="18"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
       <c r="N25" s="18"/>
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="18"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
       <c r="N26" s="18"/>
       <c r="P26" s="19"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="18"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="L27" s="19"/>
       <c r="N27" s="18"/>
       <c r="P27" s="19"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="18"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="18"/>
+      <c r="L28" s="19"/>
       <c r="N28" s="18"/>
       <c r="P28" s="19"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="18"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="18"/>
+      <c r="L29" s="19"/>
       <c r="N29" s="18"/>
       <c r="P29" s="19"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="18"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="C30" s="18"/>
+      <c r="L30" s="19"/>
       <c r="N30" s="18"/>
       <c r="P30" s="19"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="18"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
+      <c r="C31" s="18"/>
+      <c r="L31" s="19"/>
       <c r="N31" s="18"/>
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="18"/>
-      <c r="C32" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="C32" s="18"/>
+      <c r="L32" s="19"/>
       <c r="N32" s="18"/>
       <c r="P32" s="19"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="18"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
+      <c r="C33" s="18"/>
+      <c r="L33" s="19"/>
       <c r="N33" s="18"/>
       <c r="P33" s="19"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
       <c r="N34" s="18"/>
       <c r="P34" s="19"/>
     </row>
@@ -27841,7 +30463,11 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="18"/>
-      <c r="P39" s="19"/>
+      <c r="N39" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="107"/>
+      <c r="P39" s="108"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="20"/>
@@ -27856,2053 +30482,19 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="18"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="18"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="18"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="2:16">
-      <c r="B48" s="18"/>
-      <c r="C48" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="52"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
-      <c r="N48" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="51"/>
-      <c r="P48" s="52"/>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="B49" s="20"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="55"/>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="B50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51" s="18"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="N51" s="18"/>
-      <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="B52" s="18"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="N52" s="18"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="B53" s="18"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="N53" s="18"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="2:16">
-      <c r="B54" s="18"/>
-      <c r="C54" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="N54" s="18"/>
-      <c r="P54" s="19"/>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="18"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="N55" s="18"/>
-      <c r="P55" s="19"/>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56" s="18"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="N56" s="18"/>
-      <c r="P56" s="19"/>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="B57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="P57" s="19"/>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="B58" s="18"/>
-      <c r="C58" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="N58" s="18"/>
-      <c r="P58" s="19"/>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="18"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="N59" s="18"/>
-      <c r="P59" s="19"/>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="18"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="26"/>
-      <c r="N60" s="18"/>
-      <c r="P60" s="19"/>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="B61" s="18"/>
-      <c r="C61" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="68"/>
-      <c r="N61" s="18"/>
-      <c r="P61" s="19"/>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="B62" s="18"/>
-      <c r="C62" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="68"/>
-      <c r="N62" s="18"/>
-      <c r="P62" s="19"/>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="B63" s="18"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="29"/>
-      <c r="N63" s="18"/>
-      <c r="P63" s="19"/>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="B64" s="18"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="29"/>
-      <c r="N64" s="18"/>
-      <c r="P64" s="19"/>
-    </row>
-    <row r="65" spans="2:16">
-      <c r="B65" s="18"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="29"/>
-      <c r="N65" s="18"/>
-      <c r="P65" s="19"/>
-    </row>
-    <row r="66" spans="2:16">
-      <c r="B66" s="18"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="29"/>
-      <c r="N66" s="18"/>
-      <c r="P66" s="19"/>
-    </row>
-    <row r="67" spans="2:16">
-      <c r="B67" s="18"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="29"/>
-      <c r="N67" s="18"/>
-      <c r="P67" s="19"/>
-    </row>
-    <row r="68" spans="2:16">
-      <c r="B68" s="18"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="29"/>
-      <c r="N68" s="18"/>
-      <c r="P68" s="19"/>
-    </row>
-    <row r="69" spans="2:16">
-      <c r="B69" s="18"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="29"/>
-      <c r="N69" s="18"/>
-      <c r="P69" s="19"/>
-    </row>
-    <row r="70" spans="2:16">
-      <c r="B70" s="18"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="29"/>
-      <c r="N70" s="18"/>
-      <c r="P70" s="19"/>
-    </row>
-    <row r="71" spans="2:16">
-      <c r="B71" s="18"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
-      <c r="N71" s="18"/>
-      <c r="P71" s="19"/>
-    </row>
-    <row r="72" spans="2:16">
-      <c r="B72" s="18"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="29"/>
-      <c r="N72" s="18"/>
-      <c r="P72" s="19"/>
-    </row>
-    <row r="73" spans="2:16">
-      <c r="B73" s="18"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="29"/>
-      <c r="N73" s="18"/>
-      <c r="P73" s="19"/>
-    </row>
-    <row r="74" spans="2:16">
-      <c r="B74" s="18"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="29"/>
-      <c r="N74" s="18"/>
-      <c r="P74" s="19"/>
-    </row>
-    <row r="75" spans="2:16">
-      <c r="B75" s="18"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
-      <c r="N75" s="18"/>
-      <c r="P75" s="19"/>
-    </row>
-    <row r="76" spans="2:16">
-      <c r="B76" s="18"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
-      <c r="N76" s="18"/>
-      <c r="P76" s="19"/>
-    </row>
-    <row r="77" spans="2:16">
-      <c r="B77" s="18"/>
-      <c r="C77" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="64"/>
-      <c r="N77" s="18"/>
-      <c r="P77" s="19"/>
-    </row>
-    <row r="78" spans="2:16">
-      <c r="B78" s="18"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="N78" s="18"/>
-      <c r="P78" s="19"/>
-    </row>
-    <row r="79" spans="2:16">
-      <c r="B79" s="18"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="22"/>
-    </row>
-    <row r="80" spans="2:16">
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="17"/>
-    </row>
-    <row r="81" spans="2:16">
-      <c r="B81" s="18"/>
-      <c r="P81" s="19"/>
-    </row>
-    <row r="82" spans="2:16">
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="22"/>
-    </row>
-    <row r="84" spans="2:16">
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="17"/>
-    </row>
-    <row r="85" spans="2:16">
-      <c r="B85" s="18"/>
-      <c r="P85" s="19"/>
-    </row>
-    <row r="86" spans="2:16">
-      <c r="B86" s="18"/>
-      <c r="P86" s="19"/>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="B87" s="18"/>
-      <c r="P87" s="19"/>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="B88" s="18"/>
-      <c r="C88" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="52"/>
-      <c r="I88" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="52"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="33"/>
-      <c r="N88" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O88" s="51"/>
-      <c r="P88" s="52"/>
-    </row>
-    <row r="89" spans="2:16">
-      <c r="B89" s="20"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="54"/>
-      <c r="P89" s="55"/>
-    </row>
-    <row r="90" spans="2:16">
-      <c r="B90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="P90" s="19"/>
-    </row>
-    <row r="91" spans="2:16">
-      <c r="B91" s="18"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="N91" s="18"/>
-      <c r="P91" s="19"/>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" s="18"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="N92" s="18"/>
-      <c r="P92" s="19"/>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" s="18"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="N93" s="18"/>
-      <c r="P93" s="19"/>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="18"/>
-      <c r="C94" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="N94" s="18"/>
-      <c r="P94" s="19"/>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="18"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="N95" s="18"/>
-      <c r="P95" s="19"/>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="18"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="61"/>
-      <c r="L96" s="61"/>
-      <c r="N96" s="18"/>
-      <c r="P96" s="19"/>
-    </row>
-    <row r="97" spans="2:16">
-      <c r="B97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="P97" s="19"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="18"/>
-      <c r="C98" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="N98" s="18"/>
-      <c r="P98" s="19"/>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="18"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="60"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="N99" s="18"/>
-      <c r="P99" s="19"/>
-    </row>
-    <row r="100" spans="2:16">
-      <c r="B100" s="18"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="26"/>
-      <c r="N100" s="18"/>
-      <c r="P100" s="19"/>
-    </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="18"/>
-      <c r="C101" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="68"/>
-      <c r="N101" s="18"/>
-      <c r="P101" s="19"/>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="18"/>
-      <c r="C102" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="68"/>
-      <c r="N102" s="18"/>
-      <c r="P102" s="19"/>
-    </row>
-    <row r="103" spans="2:16">
-      <c r="B103" s="18"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="29"/>
-      <c r="N103" s="18"/>
-      <c r="P103" s="19"/>
-    </row>
-    <row r="104" spans="2:16">
-      <c r="B104" s="18"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="29"/>
-      <c r="N104" s="18"/>
-      <c r="P104" s="19"/>
-    </row>
-    <row r="105" spans="2:16">
-      <c r="B105" s="18"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="29"/>
-      <c r="N105" s="18"/>
-      <c r="P105" s="19"/>
-    </row>
-    <row r="106" spans="2:16">
-      <c r="B106" s="18"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="29"/>
-      <c r="N106" s="18"/>
-      <c r="P106" s="19"/>
-    </row>
-    <row r="107" spans="2:16">
-      <c r="B107" s="18"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="29"/>
-      <c r="N107" s="18"/>
-      <c r="P107" s="19"/>
-    </row>
-    <row r="108" spans="2:16">
-      <c r="B108" s="18"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="29"/>
-      <c r="N108" s="18"/>
-      <c r="P108" s="19"/>
-    </row>
-    <row r="109" spans="2:16">
-      <c r="B109" s="18"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="29"/>
-      <c r="N109" s="18"/>
-      <c r="P109" s="19"/>
-    </row>
-    <row r="110" spans="2:16">
-      <c r="B110" s="18"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="29"/>
-      <c r="N110" s="18"/>
-      <c r="P110" s="19"/>
-    </row>
-    <row r="111" spans="2:16">
-      <c r="B111" s="18"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="29"/>
-      <c r="N111" s="18"/>
-      <c r="P111" s="19"/>
-    </row>
-    <row r="112" spans="2:16">
-      <c r="B112" s="18"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="29"/>
-      <c r="N112" s="18"/>
-      <c r="P112" s="19"/>
-    </row>
-    <row r="113" spans="2:16">
-      <c r="B113" s="18"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="29"/>
-      <c r="N113" s="18"/>
-      <c r="P113" s="19"/>
-    </row>
-    <row r="114" spans="2:16">
-      <c r="B114" s="18"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="29"/>
-      <c r="N114" s="18"/>
-      <c r="P114" s="19"/>
-    </row>
-    <row r="115" spans="2:16">
-      <c r="B115" s="18"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="29"/>
-      <c r="N115" s="18"/>
-      <c r="P115" s="19"/>
-    </row>
-    <row r="116" spans="2:16">
-      <c r="B116" s="18"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="29"/>
-      <c r="N116" s="18"/>
-      <c r="P116" s="19"/>
-    </row>
-    <row r="117" spans="2:16">
-      <c r="B117" s="18"/>
-      <c r="C117" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="63"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="63"/>
-      <c r="K117" s="63"/>
-      <c r="L117" s="64"/>
-      <c r="N117" s="18"/>
-      <c r="P117" s="19"/>
-    </row>
-    <row r="118" spans="2:16">
-      <c r="B118" s="18"/>
-      <c r="C118" s="61"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="61"/>
-      <c r="L118" s="61"/>
-      <c r="N118" s="18"/>
-      <c r="P118" s="19"/>
-    </row>
-    <row r="119" spans="2:16">
-      <c r="B119" s="18"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="22"/>
-    </row>
-    <row r="120" spans="2:16">
-      <c r="B120" s="15"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="17"/>
-    </row>
-    <row r="121" spans="2:16">
-      <c r="B121" s="18"/>
-      <c r="P121" s="19"/>
-    </row>
-    <row r="122" spans="2:16">
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="21"/>
-      <c r="P122" s="22"/>
-    </row>
-    <row r="124" spans="2:16">
-      <c r="B124" s="15"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="17"/>
-    </row>
-    <row r="125" spans="2:16">
-      <c r="B125" s="18"/>
-      <c r="P125" s="19"/>
-    </row>
-    <row r="126" spans="2:16">
-      <c r="B126" s="18"/>
-      <c r="P126" s="19"/>
-    </row>
-    <row r="127" spans="2:16">
-      <c r="B127" s="18"/>
-      <c r="P127" s="19"/>
-    </row>
-    <row r="128" spans="2:16">
-      <c r="B128" s="18"/>
-      <c r="C128" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="52"/>
-      <c r="E128" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="52"/>
-      <c r="G128" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="52"/>
-      <c r="I128" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J128" s="52"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="33"/>
-      <c r="N128" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O128" s="51"/>
-      <c r="P128" s="52"/>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" s="20"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="57"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="34"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="21"/>
-      <c r="N129" s="53"/>
-      <c r="O129" s="54"/>
-      <c r="P129" s="55"/>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="B130" s="18"/>
-      <c r="N130" s="18"/>
-      <c r="P130" s="19"/>
-    </row>
-    <row r="131" spans="2:16">
-      <c r="B131" s="18"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="28"/>
-      <c r="N131" s="18"/>
-      <c r="P131" s="19"/>
-    </row>
-    <row r="132" spans="2:16">
-      <c r="B132" s="18"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="28"/>
-      <c r="N132" s="18"/>
-      <c r="P132" s="19"/>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="B133" s="18"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="30"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="30"/>
-      <c r="L133" s="30"/>
-      <c r="N133" s="18"/>
-      <c r="P133" s="19"/>
-    </row>
-    <row r="134" spans="2:16">
-      <c r="B134" s="18"/>
-      <c r="C134" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="60"/>
-      <c r="J134" s="60"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="60"/>
-      <c r="N134" s="18"/>
-      <c r="P134" s="19"/>
-    </row>
-    <row r="135" spans="2:16">
-      <c r="B135" s="18"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="60"/>
-      <c r="I135" s="60"/>
-      <c r="J135" s="60"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="60"/>
-      <c r="N135" s="18"/>
-      <c r="P135" s="19"/>
-    </row>
-    <row r="136" spans="2:16">
-      <c r="B136" s="18"/>
-      <c r="C136" s="61"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="61"/>
-      <c r="J136" s="61"/>
-      <c r="K136" s="61"/>
-      <c r="L136" s="61"/>
-      <c r="N136" s="18"/>
-      <c r="P136" s="19"/>
-    </row>
-    <row r="137" spans="2:16">
-      <c r="B137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="P137" s="19"/>
-    </row>
-    <row r="138" spans="2:16">
-      <c r="B138" s="18"/>
-      <c r="C138" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="60"/>
-      <c r="I138" s="60"/>
-      <c r="J138" s="60"/>
-      <c r="K138" s="60"/>
-      <c r="L138" s="60"/>
-      <c r="N138" s="18"/>
-      <c r="P138" s="19"/>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="B139" s="18"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="60"/>
-      <c r="I139" s="60"/>
-      <c r="J139" s="60"/>
-      <c r="K139" s="60"/>
-      <c r="L139" s="60"/>
-      <c r="N139" s="18"/>
-      <c r="P139" s="19"/>
-    </row>
-    <row r="140" spans="2:16">
-      <c r="B140" s="18"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="26"/>
-      <c r="N140" s="18"/>
-      <c r="P140" s="19"/>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="B141" s="18"/>
-      <c r="C141" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="68"/>
-      <c r="N141" s="18"/>
-      <c r="P141" s="19"/>
-    </row>
-    <row r="142" spans="2:16">
-      <c r="B142" s="18"/>
-      <c r="C142" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="68"/>
-      <c r="N142" s="18"/>
-      <c r="P142" s="19"/>
-    </row>
-    <row r="143" spans="2:16">
-      <c r="B143" s="18"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="29"/>
-      <c r="N143" s="18"/>
-      <c r="P143" s="19"/>
-    </row>
-    <row r="144" spans="2:16">
-      <c r="B144" s="18"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="29"/>
-      <c r="N144" s="18"/>
-      <c r="P144" s="19"/>
-    </row>
-    <row r="145" spans="2:16">
-      <c r="B145" s="18"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="29"/>
-      <c r="N145" s="18"/>
-      <c r="P145" s="19"/>
-    </row>
-    <row r="146" spans="2:16">
-      <c r="B146" s="18"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="29"/>
-      <c r="N146" s="18"/>
-      <c r="P146" s="19"/>
-    </row>
-    <row r="147" spans="2:16">
-      <c r="B147" s="18"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="29"/>
-      <c r="N147" s="18"/>
-      <c r="P147" s="19"/>
-    </row>
-    <row r="148" spans="2:16">
-      <c r="B148" s="18"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="29"/>
-      <c r="N148" s="18"/>
-      <c r="P148" s="19"/>
-    </row>
-    <row r="149" spans="2:16">
-      <c r="B149" s="18"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="66"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
-      <c r="L149" s="29"/>
-      <c r="N149" s="18"/>
-      <c r="P149" s="19"/>
-    </row>
-    <row r="150" spans="2:16">
-      <c r="B150" s="18"/>
-      <c r="C150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="29"/>
-      <c r="N150" s="18"/>
-      <c r="P150" s="19"/>
-    </row>
-    <row r="151" spans="2:16">
-      <c r="B151" s="18"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="66"/>
-      <c r="K151" s="66"/>
-      <c r="L151" s="29"/>
-      <c r="N151" s="18"/>
-      <c r="P151" s="19"/>
-    </row>
-    <row r="152" spans="2:16">
-      <c r="B152" s="18"/>
-      <c r="C152" s="27"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="29"/>
-      <c r="N152" s="18"/>
-      <c r="P152" s="19"/>
-    </row>
-    <row r="153" spans="2:16">
-      <c r="B153" s="18"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="66"/>
-      <c r="J153" s="66"/>
-      <c r="K153" s="66"/>
-      <c r="L153" s="29"/>
-      <c r="N153" s="18"/>
-      <c r="P153" s="19"/>
-    </row>
-    <row r="154" spans="2:16">
-      <c r="B154" s="18"/>
-      <c r="C154" s="27"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="29"/>
-      <c r="N154" s="18"/>
-      <c r="P154" s="19"/>
-    </row>
-    <row r="155" spans="2:16">
-      <c r="B155" s="18"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="66"/>
-      <c r="J155" s="66"/>
-      <c r="K155" s="66"/>
-      <c r="L155" s="29"/>
-      <c r="N155" s="18"/>
-      <c r="P155" s="19"/>
-    </row>
-    <row r="156" spans="2:16">
-      <c r="B156" s="18"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="29"/>
-      <c r="N156" s="18"/>
-      <c r="P156" s="19"/>
-    </row>
-    <row r="157" spans="2:16">
-      <c r="B157" s="18"/>
-      <c r="C157" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
-      <c r="H157" s="63"/>
-      <c r="I157" s="63"/>
-      <c r="J157" s="63"/>
-      <c r="K157" s="63"/>
-      <c r="L157" s="64"/>
-      <c r="N157" s="18"/>
-      <c r="P157" s="19"/>
-    </row>
-    <row r="158" spans="2:16">
-      <c r="B158" s="18"/>
-      <c r="C158" s="61"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="61"/>
-      <c r="F158" s="61"/>
-      <c r="G158" s="61"/>
-      <c r="H158" s="61"/>
-      <c r="I158" s="61"/>
-      <c r="J158" s="61"/>
-      <c r="K158" s="61"/>
-      <c r="L158" s="61"/>
-      <c r="N158" s="18"/>
-      <c r="P158" s="19"/>
-    </row>
-    <row r="159" spans="2:16">
-      <c r="B159" s="18"/>
-      <c r="N159" s="20"/>
-      <c r="O159" s="21"/>
-      <c r="P159" s="22"/>
-    </row>
-    <row r="160" spans="2:16">
-      <c r="B160" s="15"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="16"/>
-      <c r="L160" s="16"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="16"/>
-      <c r="O160" s="16"/>
-      <c r="P160" s="17"/>
-    </row>
-    <row r="161" spans="2:16">
-      <c r="B161" s="18"/>
-      <c r="P161" s="19"/>
-    </row>
-    <row r="162" spans="2:16">
-      <c r="B162" s="20"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
-      <c r="O162" s="21"/>
-      <c r="P162" s="22"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="7">
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="B2:P4"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C16:L17"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="G48:H49"/>
-    <mergeCell ref="I48:J49"/>
-    <mergeCell ref="N48:P49"/>
-    <mergeCell ref="C54:L55"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="C58:L59"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="C102:L102"/>
-    <mergeCell ref="C78:L78"/>
-    <mergeCell ref="C77:L77"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:F89"/>
-    <mergeCell ref="G88:H89"/>
-    <mergeCell ref="I88:J89"/>
-    <mergeCell ref="N88:P89"/>
-    <mergeCell ref="C94:L95"/>
-    <mergeCell ref="C96:L96"/>
-    <mergeCell ref="C98:L99"/>
-    <mergeCell ref="C101:L101"/>
-    <mergeCell ref="N128:P129"/>
-    <mergeCell ref="C134:L135"/>
-    <mergeCell ref="C136:L136"/>
-    <mergeCell ref="C138:L139"/>
-    <mergeCell ref="C141:L141"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:F129"/>
-    <mergeCell ref="G128:H129"/>
-    <mergeCell ref="I128:J129"/>
-    <mergeCell ref="F114:J114"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="C157:L157"/>
-    <mergeCell ref="C158:L158"/>
-    <mergeCell ref="D149:K149"/>
-    <mergeCell ref="D151:K151"/>
-    <mergeCell ref="D153:K153"/>
-    <mergeCell ref="D155:K155"/>
-    <mergeCell ref="C142:L142"/>
-    <mergeCell ref="C117:L117"/>
-    <mergeCell ref="C118:L118"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99BDDE-1E86-434B-8AF5-496D1362A8D4}">
-  <dimension ref="B2:P40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="18"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="18"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="18"/>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="18"/>
-      <c r="C6" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-      <c r="N6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="20"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="18"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="N9" s="18"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="18"/>
-      <c r="C10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="N10" s="18"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="2:16" ht="18.75">
-      <c r="B22" s="18"/>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="18"/>
-      <c r="P22" s="19"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="P23" s="19"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="P25" s="19"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="18"/>
-      <c r="C26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="N26" s="18"/>
-      <c r="P26" s="19"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="N27" s="18"/>
-      <c r="P27" s="19"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="N28" s="18"/>
-      <c r="P28" s="19"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="N29" s="18"/>
-      <c r="P29" s="19"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="N30" s="18"/>
-      <c r="P30" s="19"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="N31" s="18"/>
-      <c r="P31" s="19"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="N32" s="18"/>
-      <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="N33" s="18"/>
-      <c r="P33" s="19"/>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="18"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="N34" s="18"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="18"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="18"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="N6:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29914,33 +30506,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FA3AF-FCCC-44BF-BE75-0B78231BC529}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="18"/>
@@ -30085,28 +30679,28 @@
       <c r="J24" s="22"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="18"/>
@@ -30266,34 +30860,34 @@
   <dimension ref="B2:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="18"/>
@@ -30416,8 +31010,8 @@
       <c r="B22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10">
@@ -30428,8 +31022,8 @@
       <c r="B24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10">
@@ -30460,12 +31054,12 @@
       <c r="C28" s="23">
         <v>1</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10">
@@ -30473,12 +31067,12 @@
       <c r="C29" s="23">
         <v>2</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10">
@@ -30486,12 +31080,12 @@
       <c r="C30" s="23">
         <v>3</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10">
@@ -30499,12 +31093,12 @@
       <c r="C31" s="23">
         <v>4</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10">
@@ -30512,12 +31106,12 @@
       <c r="C32" s="23">
         <v>5</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10">
@@ -30525,12 +31119,12 @@
       <c r="C33" s="23">
         <v>6</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10">
@@ -30538,12 +31132,12 @@
       <c r="C34" s="23">
         <v>7</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10">
@@ -30551,12 +31145,12 @@
       <c r="C35" s="23">
         <v>8</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
       <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10">
@@ -30564,12 +31158,12 @@
       <c r="C36" s="23">
         <v>9</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10">
@@ -30577,12 +31171,12 @@
       <c r="C37" s="23">
         <v>10</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10">
@@ -30590,12 +31184,12 @@
       <c r="C38" s="23">
         <v>11</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10">
@@ -30603,12 +31197,12 @@
       <c r="C39" s="23">
         <v>12</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10">
@@ -30616,12 +31210,12 @@
       <c r="C40" s="23">
         <v>13</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="2:10">
@@ -30629,12 +31223,12 @@
       <c r="C41" s="23">
         <v>14</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="2:10">
@@ -30642,12 +31236,12 @@
       <c r="C42" s="23">
         <v>15</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="2:10">
@@ -30655,12 +31249,12 @@
       <c r="C43" s="23">
         <v>16</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="2:10">
@@ -30668,12 +31262,12 @@
       <c r="C44" s="23">
         <v>17</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10">
@@ -30681,12 +31275,12 @@
       <c r="C45" s="23">
         <v>18</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="2:10">
@@ -30694,12 +31288,12 @@
       <c r="C46" s="23">
         <v>19</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="2:10">
@@ -30707,12 +31301,12 @@
       <c r="C47" s="23">
         <v>20</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="2:10">
@@ -30745,28 +31339,28 @@
       <c r="J52" s="22"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="55"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="60"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="18"/>
@@ -30889,8 +31483,8 @@
       <c r="B74" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="75"/>
       <c r="J74" s="19"/>
     </row>
     <row r="75" spans="2:10">
@@ -30901,8 +31495,8 @@
       <c r="B76" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="75"/>
       <c r="J76" s="19"/>
     </row>
     <row r="77" spans="2:10">
@@ -30933,12 +31527,12 @@
       <c r="C80" s="23">
         <v>1</v>
       </c>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="19"/>
     </row>
     <row r="81" spans="2:10">
@@ -30946,12 +31540,12 @@
       <c r="C81" s="23">
         <v>2</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
       <c r="J81" s="19"/>
     </row>
     <row r="82" spans="2:10">
@@ -30959,12 +31553,12 @@
       <c r="C82" s="23">
         <v>3</v>
       </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
       <c r="J82" s="19"/>
     </row>
     <row r="83" spans="2:10">
@@ -30972,12 +31566,12 @@
       <c r="C83" s="23">
         <v>4</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="19"/>
     </row>
     <row r="84" spans="2:10">
@@ -30985,12 +31579,12 @@
       <c r="C84" s="23">
         <v>5</v>
       </c>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="19"/>
     </row>
     <row r="85" spans="2:10">
@@ -30998,12 +31592,12 @@
       <c r="C85" s="23">
         <v>6</v>
       </c>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
       <c r="J85" s="19"/>
     </row>
     <row r="86" spans="2:10">
@@ -31011,12 +31605,12 @@
       <c r="C86" s="23">
         <v>7</v>
       </c>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="69"/>
-      <c r="I86" s="69"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
       <c r="J86" s="19"/>
     </row>
     <row r="87" spans="2:10">
@@ -31024,12 +31618,12 @@
       <c r="C87" s="23">
         <v>8</v>
       </c>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
       <c r="J87" s="19"/>
     </row>
     <row r="88" spans="2:10">
@@ -31037,12 +31631,12 @@
       <c r="C88" s="23">
         <v>9</v>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
       <c r="J88" s="19"/>
     </row>
     <row r="89" spans="2:10">
@@ -31050,12 +31644,12 @@
       <c r="C89" s="23">
         <v>10</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
       <c r="J89" s="19"/>
     </row>
     <row r="90" spans="2:10">
@@ -31063,12 +31657,12 @@
       <c r="C90" s="23">
         <v>11</v>
       </c>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="19"/>
     </row>
     <row r="91" spans="2:10">
@@ -31076,12 +31670,12 @@
       <c r="C91" s="23">
         <v>12</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="69"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="19"/>
     </row>
     <row r="92" spans="2:10">
@@ -31089,12 +31683,12 @@
       <c r="C92" s="23">
         <v>13</v>
       </c>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="19"/>
     </row>
     <row r="93" spans="2:10">
@@ -31102,12 +31696,12 @@
       <c r="C93" s="23">
         <v>14</v>
       </c>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="19"/>
     </row>
     <row r="94" spans="2:10">
@@ -31115,12 +31709,12 @@
       <c r="C94" s="23">
         <v>15</v>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="19"/>
     </row>
     <row r="95" spans="2:10">
@@ -31128,12 +31722,12 @@
       <c r="C95" s="23">
         <v>16</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="69"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="19"/>
     </row>
     <row r="96" spans="2:10">
@@ -31141,12 +31735,12 @@
       <c r="C96" s="23">
         <v>17</v>
       </c>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="19"/>
     </row>
     <row r="97" spans="2:10">
@@ -31154,12 +31748,12 @@
       <c r="C97" s="23">
         <v>18</v>
       </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="69"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="19"/>
     </row>
     <row r="98" spans="2:10">
@@ -31167,12 +31761,12 @@
       <c r="C98" s="23">
         <v>19</v>
       </c>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="19"/>
     </row>
     <row r="99" spans="2:10">
@@ -31180,12 +31774,12 @@
       <c r="C99" s="23">
         <v>20</v>
       </c>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="19"/>
     </row>
     <row r="100" spans="2:10">
@@ -31219,41 +31813,44 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:I83"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="G80:I80"/>
     <mergeCell ref="D44:F44"/>
@@ -31267,44 +31864,41 @@
     <mergeCell ref="B54:J55"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31317,34 +31911,34 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="18"/>
@@ -31374,8 +31968,8 @@
       <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10">
@@ -31386,8 +31980,8 @@
       <c r="B11" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10">
@@ -31410,66 +32004,36 @@
     <row r="14" spans="2:10">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
     </row>
@@ -31506,28 +32070,28 @@
       <c r="J23" s="22"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="18"/>
@@ -31557,8 +32121,8 @@
       <c r="B32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10">
@@ -31569,8 +32133,8 @@
       <c r="B34" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10">
@@ -31593,66 +32157,36 @@
     <row r="37" spans="2:10">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
